--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1189453420185467</v>
+        <v>-0.1143057577823544</v>
       </c>
       <c r="D2">
-        <v>0.905332887950786</v>
+        <v>0.91003221000996</v>
       </c>
       <c r="E2">
         <v>0.5893211268129221</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1082038758826455</v>
+        <v>-0.09292503697217756</v>
       </c>
       <c r="D3">
-        <v>0.9138468991273718</v>
+        <v>0.9268041652979311</v>
       </c>
       <c r="E3">
         <v>0.5893211268129221</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7180973008216178</v>
+        <v>0.8767942290025227</v>
       </c>
       <c r="D4">
-        <v>0.472797200111291</v>
+        <v>0.390072490932093</v>
       </c>
       <c r="E4">
         <v>0.5893211268129221</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.661477871218596</v>
+        <v>1.9173645297332</v>
       </c>
       <c r="D5">
-        <v>0.0968041963620061</v>
+        <v>0.06826775212219971</v>
       </c>
       <c r="E5">
         <v>0.5893211268129221</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.01057253453622112</v>
+        <v>0.008832211092691418</v>
       </c>
       <c r="D6">
-        <v>0.9915657511077238</v>
+        <v>0.9930326098626041</v>
       </c>
       <c r="E6">
         <v>0.5919408253262093</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.8610607146875988</v>
+        <v>0.8752370211093564</v>
       </c>
       <c r="D7">
-        <v>0.3893275498306963</v>
+        <v>0.3909006404183586</v>
       </c>
       <c r="E7">
         <v>0.5919408253262093</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.022749766044885</v>
+        <v>1.907661244122388</v>
       </c>
       <c r="D8">
-        <v>0.04325718509218968</v>
+        <v>0.06957327732500462</v>
       </c>
       <c r="E8">
         <v>0.5919408253262093</v>
@@ -609,7 +606,7 @@
         <v>0.5563497495819119</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.8108288485326476</v>
+        <v>0.7019714046853849</v>
       </c>
       <c r="D9">
-        <v>0.4175788810213832</v>
+        <v>0.4900575996616339</v>
       </c>
       <c r="E9">
         <v>0.5917009454687245</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.748323897001984</v>
+        <v>1.341279824576258</v>
       </c>
       <c r="D10">
-        <v>0.08059071803201823</v>
+        <v>0.193513207742801</v>
       </c>
       <c r="E10">
         <v>0.5917009454687245</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.8837990566677931</v>
+        <v>0.7894232184578512</v>
       </c>
       <c r="D11">
-        <v>0.3769312271820877</v>
+        <v>0.4382905013504033</v>
       </c>
       <c r="E11">
         <v>0.5734643617459827</v>
